--- a/Output_Backtest/Equal_Risk_Contribution_cumulative_returns.xlsx
+++ b/Output_Backtest/Equal_Risk_Contribution_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9880643760128009</v>
+        <v>0.9880643722341078</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9690732849217775</v>
+        <v>0.9690731814178999</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9549079891366923</v>
+        <v>0.9549079239014784</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9616577637769691</v>
+        <v>0.9616576352622952</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9985583419513266</v>
+        <v>0.9985584262510583</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.013399054121204</v>
+        <v>1.013399018639991</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.015720920425004</v>
+        <v>1.015720917409054</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.041310056113415</v>
+        <v>1.04131013396086</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.059102042269545</v>
+        <v>1.059101996025795</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.05962231220756</v>
+        <v>1.059622171791623</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.064976066890652</v>
+        <v>1.064976095576442</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.046618561725948</v>
+        <v>1.04661852622727</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.029251671136363</v>
+        <v>1.029251669911094</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.038183502280083</v>
+        <v>1.038183570861032</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.051841381831821</v>
+        <v>1.051841423278194</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.069196170507576</v>
+        <v>1.069196331074957</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.070963346840966</v>
+        <v>1.070963344693991</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.082187524792607</v>
+        <v>1.082187768847136</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.091744438070965</v>
+        <v>1.091744647462738</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.092118762025225</v>
+        <v>1.092119020844344</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.109010252489487</v>
+        <v>1.109010266730385</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.118698855619055</v>
+        <v>1.11869903939296</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.12332023211085</v>
+        <v>1.123320407608967</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.130015271130958</v>
+        <v>1.130015493007158</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.137243312973226</v>
+        <v>1.137243476529376</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.147456808249294</v>
+        <v>1.147456924326874</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.15789794251</v>
+        <v>1.157898006054814</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.131247656568448</v>
+        <v>1.131247668727564</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.138747401736968</v>
+        <v>1.138747579596806</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.134658304526469</v>
+        <v>1.134658630215712</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.144587287855866</v>
+        <v>1.144587385875798</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.143165514834432</v>
+        <v>1.143165671722011</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.151869885369763</v>
+        <v>1.151870086749694</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.159261038441343</v>
+        <v>1.159261158608469</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.152965092983648</v>
+        <v>1.152965268742998</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.116187355248581</v>
+        <v>1.116187481862125</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.122422126736242</v>
+        <v>1.122422246239589</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.103332557107651</v>
+        <v>1.103332557500039</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.155528575700622</v>
+        <v>1.155528681708243</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.164676018853455</v>
+        <v>1.164676178177796</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.184775712344638</v>
+        <v>1.184775821871204</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.198519359815037</v>
+        <v>1.198519429488571</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.177918750385982</v>
+        <v>1.177918863575437</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.220792713589349</v>
+        <v>1.220792841266589</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.222157518046048</v>
+        <v>1.222157683976381</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.235037661964036</v>
+        <v>1.235037828845934</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.239552431379474</v>
+        <v>1.239552511787773</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.254822499437998</v>
+        <v>1.254822592778169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.259202995547552</v>
+        <v>1.259203055566493</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.278517311675082</v>
+        <v>1.278517419653353</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.289779267238918</v>
+        <v>1.28977935380849</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.274211612882752</v>
+        <v>1.274211598232836</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.228019203122325</v>
+        <v>1.228018945854273</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.269518300560778</v>
+        <v>1.269518305206517</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.296710375089669</v>
+        <v>1.29671032792002</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.317818453401374</v>
+        <v>1.317818580137542</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.359035722976798</v>
+        <v>1.359035712392487</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.362626289883266</v>
+        <v>1.362626357321141</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.349007743628431</v>
+        <v>1.349007773585152</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.332170044391399</v>
+        <v>1.332170025915466</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.385565359756479</v>
+        <v>1.38556549517043</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.409683215509193</v>
+        <v>1.409683600072684</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.401597344017565</v>
+        <v>1.401597618886555</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.389514578916079</v>
+        <v>1.389514712185255</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.378321654141502</v>
+        <v>1.378321654514373</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.403705505277869</v>
+        <v>1.403705825454475</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.417966275540765</v>
+        <v>1.417966509456194</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.434951460043393</v>
+        <v>1.434951897766694</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.444605007591412</v>
+        <v>1.444605255031906</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.448601281614496</v>
+        <v>1.448601696331993</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.419139960161536</v>
+        <v>1.41914028349781</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.434376616473135</v>
+        <v>1.434377037985697</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.425579244638112</v>
+        <v>1.425579542792103</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.440888467690954</v>
+        <v>1.440888696957491</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.403689942675677</v>
+        <v>1.403690202520576</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.388991881638384</v>
+        <v>1.388992177854161</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.365169388538939</v>
+        <v>1.365169731707933</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.298774761232197</v>
+        <v>1.298775093952694</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.305740737583587</v>
+        <v>1.305741031708557</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.258884082560173</v>
+        <v>1.258884460536744</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.29648787596399</v>
+        <v>1.296488192164387</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.251966398317008</v>
+        <v>1.251966776557533</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.172853999878463</v>
+        <v>1.172854402640179</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.179712141316573</v>
+        <v>1.179712587059956</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.244914256757235</v>
+        <v>1.24491475350783</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.221709468846661</v>
+        <v>1.221709969887479</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.29009335081007</v>
+        <v>1.290093781676207</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.242897831041068</v>
+        <v>1.242898302540836</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.27570757363969</v>
+        <v>1.275707994252935</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.281522859726916</v>
+        <v>1.281523312226479</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.256732875623819</v>
+        <v>1.256733321025091</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.290339234209374</v>
+        <v>1.290339758645783</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.323635390825048</v>
+        <v>1.32363591648611</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.296210932025346</v>
+        <v>1.296211450880364</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.256593511407714</v>
+        <v>1.256593941878704</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.230431817380851</v>
+        <v>1.230432262364569</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.298265933219647</v>
+        <v>1.298266450561955</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.349076780509481</v>
+        <v>1.349077389688562</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.336780612929273</v>
+        <v>1.336781219969309</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.354003336299282</v>
+        <v>1.354003864976089</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.389083928217207</v>
+        <v>1.389084465958946</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.35895542640934</v>
+        <v>1.358955998358735</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.387201381576446</v>
+        <v>1.387201967669942</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.399315689527163</v>
+        <v>1.399316254467244</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.433684142069131</v>
+        <v>1.433684738334823</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.453827761435138</v>
+        <v>1.453828376683614</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.48531474182811</v>
+        <v>1.485315348524638</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.459380012087783</v>
+        <v>1.459380621443514</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.445049118625362</v>
+        <v>1.445049726502036</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Equal_Risk_Contribution_cumulative_returns.xlsx
+++ b/Output_Backtest/Equal_Risk_Contribution_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9880643722341078</v>
+        <v>0.9880643191552437</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9690731814178999</v>
+        <v>0.969073285570115</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9549079239014784</v>
+        <v>0.9549076922152049</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9616576352622952</v>
+        <v>0.9616573527185802</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9985584262510583</v>
+        <v>0.9985583024750576</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.013399018639991</v>
+        <v>1.013399177956767</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.015720917409054</v>
+        <v>1.01572092520106</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.04131013396086</v>
+        <v>1.041310118069071</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.059101996025795</v>
+        <v>1.059102136707994</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.059622171791623</v>
+        <v>1.05962219763511</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.064976095576442</v>
+        <v>1.064976216621175</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.04661852622727</v>
+        <v>1.046618525249867</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.029251669911094</v>
+        <v>1.029251873395886</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.038183570861032</v>
+        <v>1.038183635405979</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.051841423278194</v>
+        <v>1.051841662005829</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.069196331074957</v>
+        <v>1.069196342806514</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.070963344693991</v>
+        <v>1.070963672559889</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.082187768847136</v>
+        <v>1.082187897734167</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.091744647462738</v>
+        <v>1.091744882879724</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.092119020844344</v>
+        <v>1.092119105209064</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.109010266730385</v>
+        <v>1.10901060138051</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.11869903939296</v>
+        <v>1.118699091749028</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.123320407608967</v>
+        <v>1.123320505468674</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.130015493007158</v>
+        <v>1.130016968976496</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.137243476529376</v>
+        <v>1.137244254408067</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.147456924326874</v>
+        <v>1.147457629160826</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.157898006054814</v>
+        <v>1.157898751171354</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.131247668727564</v>
+        <v>1.131248660858563</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.138747579596806</v>
+        <v>1.138748336760485</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.134658630215712</v>
+        <v>1.134659370783121</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.144587385875798</v>
+        <v>1.144588300354138</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.143165671722011</v>
+        <v>1.143166526269705</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.151870086749694</v>
+        <v>1.151870829324519</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.159261158608469</v>
+        <v>1.159261992706915</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.152965268742998</v>
+        <v>1.152966011508841</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.116187481862125</v>
+        <v>1.116188213085131</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.122422246239589</v>
+        <v>1.12242309539384</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.103332557500039</v>
+        <v>1.10333357873948</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.155528681708243</v>
+        <v>1.155529672975941</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.164676178177796</v>
+        <v>1.164677091192878</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.184775821871204</v>
+        <v>1.184776797162191</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.198519429488571</v>
+        <v>1.198520402835693</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.177918863575437</v>
+        <v>1.177919930623824</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.220792841266589</v>
+        <v>1.220793817305523</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.222157683976381</v>
+        <v>1.222158663022945</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.235037828845934</v>
+        <v>1.23503881147525</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.239552511787773</v>
+        <v>1.239553550956896</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.254822592778169</v>
+        <v>1.254823603405881</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.259203055566493</v>
+        <v>1.259204004444029</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.278517419653353</v>
+        <v>1.278518487325583</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.28977935380849</v>
+        <v>1.28978043468741</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.274211598232836</v>
+        <v>1.274212734522617</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.228018945854273</v>
+        <v>1.228020149867177</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.269518305206517</v>
+        <v>1.269519307399955</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.29671032792002</v>
+        <v>1.29671143017621</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.317818580137542</v>
+        <v>1.317819753508228</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.359035712392487</v>
+        <v>1.359036957664373</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.362626357321141</v>
+        <v>1.362627590966745</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.349007773585152</v>
+        <v>1.349008981164108</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.332170025915466</v>
+        <v>1.332171121392113</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.38556549517043</v>
+        <v>1.385566528560544</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.409683600072684</v>
+        <v>1.409684548406777</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.401597618886555</v>
+        <v>1.401598653590086</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.389514712185255</v>
+        <v>1.38951573579121</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.378321654514373</v>
+        <v>1.378322746189458</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.403705825454475</v>
+        <v>1.403706790975415</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.417966509456194</v>
+        <v>1.417967685223074</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.434951897766694</v>
+        <v>1.43495298436546</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.444605255031906</v>
+        <v>1.444606445054736</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.448601696331993</v>
+        <v>1.448602794618003</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.41914028349781</v>
+        <v>1.419141493241542</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.434377037985697</v>
+        <v>1.4343780685045</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.425579542792103</v>
+        <v>1.425580649449893</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.440888696957491</v>
+        <v>1.440889949691814</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.403690202520576</v>
+        <v>1.403691416105817</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.388992177854161</v>
+        <v>1.38899328017741</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.365169731707933</v>
+        <v>1.365170814649304</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.298775093952694</v>
+        <v>1.298776044229962</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.305741031708557</v>
+        <v>1.305741937351</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.258884460536744</v>
+        <v>1.258885286818855</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.296488192164387</v>
+        <v>1.29648918843775</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.251966776557533</v>
+        <v>1.251967613718077</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.172854402640179</v>
+        <v>1.172855162466427</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.179712587059956</v>
+        <v>1.17971335115169</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.24491475350783</v>
+        <v>1.244915531067374</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.221709969887479</v>
+        <v>1.221710840247431</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.290093781676207</v>
+        <v>1.29009468782079</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.242898302540836</v>
+        <v>1.242899058774302</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.275707994252935</v>
+        <v>1.275708871339305</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.281523312226479</v>
+        <v>1.281524187578362</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.256733321025091</v>
+        <v>1.256734131272716</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.290339758645783</v>
+        <v>1.290340615115515</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.32363591648611</v>
+        <v>1.323636789598619</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.296211450880364</v>
+        <v>1.296212279105901</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.256593941878704</v>
+        <v>1.256594832223533</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.230432262364569</v>
+        <v>1.230433092866182</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.298266450561955</v>
+        <v>1.29826729129292</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.349077389688562</v>
+        <v>1.349078191088787</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.336781219969309</v>
+        <v>1.336782015160855</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.354003864976089</v>
+        <v>1.354004699846914</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.389084465958946</v>
+        <v>1.389085332022733</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.358955998358735</v>
+        <v>1.358956860211221</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.387201967669942</v>
+        <v>1.38720280091912</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.399316254467244</v>
+        <v>1.399317131276013</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.433684738334823</v>
+        <v>1.433685623781198</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.453828376683614</v>
+        <v>1.453829268460222</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.485315348524638</v>
+        <v>1.485690761038619</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.459380621443514</v>
+        <v>1.459747923902905</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.445049726502036</v>
+        <v>1.454507635930456</v>
       </c>
     </row>
   </sheetData>
